--- a/Examples/pcb/pcb_model.xlsx
+++ b/Examples/pcb/pcb_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Proyectos\TaesLab\Examples\pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7E8B4-E600-4C00-B6C1-83ED38A5B497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C940D4B0-6D07-4B75-A6C3-EB12D29E8DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="375" windowWidth="23670" windowHeight="12525" firstSheet="1" activeTab="4" xr2:uid="{AF90B63D-29FD-432D-B62C-A96A48422F5F}"/>
+    <workbookView xWindow="345" yWindow="135" windowWidth="28800" windowHeight="15480" activeTab="3" xr2:uid="{AF90B63D-29FD-432D-B62C-A96A48422F5F}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="WasteAllocation" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$A$1:$B$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$A$1:$B$25</definedName>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$5</definedName>
     <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$3</definedName>
     <definedName name="tgas_c0" localSheetId="6">ResourcesCost!$A$1:$B$2</definedName>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="196">
   <si>
     <t>Flows</t>
   </si>
@@ -223,24 +223,12 @@
     <t>HE</t>
   </si>
   <si>
-    <t>GI</t>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
     <t>ER</t>
   </si>
   <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>EW</t>
-  </si>
-  <si>
-    <t>Anode casting steam waste</t>
-  </si>
-  <si>
     <t>E1+DE</t>
   </si>
   <si>
@@ -256,9 +244,6 @@
     <t>BW</t>
   </si>
   <si>
-    <t>Pyrometallurgical (Waste)</t>
-  </si>
-  <si>
     <t>AB1+AB2</t>
   </si>
   <si>
@@ -277,9 +262,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>Exergy</t>
-  </si>
-  <si>
     <t>EX</t>
   </si>
   <si>
@@ -475,15 +457,6 @@
     <t>OXI</t>
   </si>
   <si>
-    <t>C2+(C1+JC-CI)+(BC+DC-CB)</t>
-  </si>
-  <si>
-    <t>L1+L2+(KL-LM)</t>
-  </si>
-  <si>
-    <t>M1+M2+(LM-MN)</t>
-  </si>
-  <si>
     <t>Shredding (A)</t>
   </si>
   <si>
@@ -586,9 +559,6 @@
     <t>Cold Water</t>
   </si>
   <si>
-    <t xml:space="preserve">Heat Water </t>
-  </si>
-  <si>
     <t>Anode Copper LT</t>
   </si>
   <si>
@@ -688,24 +658,12 @@
     <t>Pd</t>
   </si>
   <si>
-    <t>ACSW</t>
-  </si>
-  <si>
     <t>SLGW</t>
   </si>
   <si>
-    <t>EF+E2</t>
-  </si>
-  <si>
-    <t>H1+H2+(GI+CI-H4)</t>
-  </si>
-  <si>
     <t>D1+D2+D3+FD+(CD-DC)</t>
   </si>
   <si>
-    <t>F1+F2+KF+(EF-FD-FK)</t>
-  </si>
-  <si>
     <t>Reduction (B)</t>
   </si>
   <si>
@@ -721,7 +679,40 @@
     <t>RED</t>
   </si>
   <si>
-    <t>K1+K2+(FK-KF)</t>
+    <t>F1+F2+KF+(EF-FD)</t>
+  </si>
+  <si>
+    <t>F3+FK</t>
+  </si>
+  <si>
+    <t>(C1+JC-CI)+(C2+BC+DC-CB)</t>
+  </si>
+  <si>
+    <t>KL+KF</t>
+  </si>
+  <si>
+    <t>K1+K2+FK</t>
+  </si>
+  <si>
+    <t>L1+L2+KL</t>
+  </si>
+  <si>
+    <t>L3+LM</t>
+  </si>
+  <si>
+    <t>M3+MN</t>
+  </si>
+  <si>
+    <t>M1+M2+LM</t>
+  </si>
+  <si>
+    <t>Pyrometallurgical Waste</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>H1+H2+(GH+CI-H4)</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1929,7 @@
   <sheetData>
     <row r="11" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2045,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2150A9C1-0CF7-411A-A49C-E6EE18BF3676}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,602 +2062,580 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>4</v>
+      <c r="A24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>4</v>
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
+      <c r="A37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>4</v>
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
+      <c r="A41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
       <c r="C45" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>4</v>
+      <c r="A51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>12</v>
+      <c r="A52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B27" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B65">
-      <sortCondition ref="A1:A27"/>
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B64">
+      <sortCondition ref="A1:A26"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2675,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106F684F-D893-44BD-AEC4-990B24C8269A}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,13 +2668,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -2713,16 +2682,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>5</v>
@@ -2734,16 +2703,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -2755,16 +2724,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>5</v>
@@ -2776,16 +2745,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>5</v>
@@ -2797,16 +2766,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>5</v>
@@ -2818,16 +2787,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>5</v>
@@ -2839,16 +2808,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>5</v>
@@ -2859,13 +2828,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>5</v>
@@ -2880,7 +2849,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>27</v>
@@ -2901,13 +2870,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>5</v>
@@ -2919,13 +2888,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>5</v>
@@ -2937,13 +2906,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>5</v>
@@ -2955,13 +2924,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>5</v>
@@ -2969,16 +2938,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>9</v>
@@ -2986,55 +2955,38 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25"/>
       <c r="D25"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C26"/>
-      <c r="D26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3043,51 +2995,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4AC7AA-3572-4074-92FE-03FED41251DE}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>80173.625871283366</v>
+        <v>1315895.6502926769</v>
       </c>
       <c r="C2">
-        <v>1315895.6502926769</v>
+        <v>2226760.6211042809</v>
       </c>
       <c r="D2">
-        <v>2226760.6211042809</v>
-      </c>
-      <c r="E2">
         <v>991038.59668288729</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>877.4</v>
@@ -3098,13 +3044,10 @@
       <c r="D3">
         <v>877.4</v>
       </c>
-      <c r="E3">
-        <v>877.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>66178.293835996054</v>
@@ -3115,30 +3058,24 @@
       <c r="D4">
         <v>66178.293835996054</v>
       </c>
-      <c r="E4">
-        <v>66178.293835996054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>13995.332035287312</v>
+        <v>1249717.3564566807</v>
       </c>
       <c r="C5">
-        <v>1249717.3564566807</v>
+        <v>2160582.3272682847</v>
       </c>
       <c r="D5">
-        <v>2160582.3272682847</v>
-      </c>
-      <c r="E5">
         <v>924860.30284689122</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>1551.5980110100579</v>
@@ -3149,47 +3086,38 @@
       <c r="D6">
         <v>1551.5980110100579</v>
       </c>
-      <c r="E6">
-        <v>1551.5980110100579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>9494.2509599539044</v>
+        <v>11902.819672788437</v>
       </c>
       <c r="C7">
-        <v>11902.819672788437</v>
+        <v>12188.474880560725</v>
       </c>
       <c r="D7">
-        <v>12188.474880560725</v>
-      </c>
-      <c r="E7">
         <v>9779.9061677261943</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B8">
-        <v>7366.3682729083293</v>
+        <v>1278857.649107608</v>
       </c>
       <c r="C8">
-        <v>1278857.649107608</v>
+        <v>2193964.8382616476</v>
       </c>
       <c r="D8">
-        <v>2193964.8382616476</v>
-      </c>
-      <c r="E8">
         <v>922473.55742694787</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B9">
         <v>17800.057135963369</v>
@@ -3200,13 +3128,10 @@
       <c r="D9">
         <v>17800.057135963369</v>
       </c>
-      <c r="E9">
-        <v>17800.057135963369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>1977</v>
@@ -3217,13 +3142,10 @@
       <c r="D10">
         <v>1977</v>
       </c>
-      <c r="E10">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1517.7314774427114</v>
@@ -3234,47 +3156,38 @@
       <c r="D11">
         <v>1517.7314774427114</v>
       </c>
-      <c r="E11">
-        <v>1517.7314774427114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B12">
-        <v>5093.7800173578516</v>
+        <v>43271.605143516732</v>
       </c>
       <c r="C12">
-        <v>43271.605143516732</v>
+        <v>47799.478693726822</v>
       </c>
       <c r="D12">
-        <v>47799.478693726822</v>
-      </c>
-      <c r="E12">
         <v>9621.6535675679406</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B13">
-        <v>3525.3527549597461</v>
+        <v>1242565.1072698529</v>
       </c>
       <c r="C13">
-        <v>1242565.1072698529</v>
+        <v>2153823.5594358151</v>
       </c>
       <c r="D13">
-        <v>2153823.5594358151</v>
-      </c>
-      <c r="E13">
         <v>914783.8049209218</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B14">
         <v>683.94913122363914</v>
@@ -3285,13 +3198,10 @@
       <c r="D14">
         <v>683.94913122363914</v>
       </c>
-      <c r="E14">
-        <v>683.94913122363914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>4455.1553999217176</v>
@@ -3302,13 +3212,10 @@
       <c r="D15">
         <v>4455.1553999217176</v>
       </c>
-      <c r="E15">
-        <v>4455.1553999217176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>407.11280819108799</v>
@@ -3319,13 +3226,10 @@
       <c r="D16">
         <v>407.11280819108799</v>
       </c>
-      <c r="E16">
-        <v>407.11280819108799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>77.961918282329151</v>
@@ -3336,47 +3240,38 @@
       <c r="D17">
         <v>77.961918282329151</v>
       </c>
-      <c r="E17">
-        <v>77.961918282329151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B18">
-        <v>755.21211498339756</v>
+        <v>6481.6711123055475</v>
       </c>
       <c r="C18">
-        <v>6481.6711123055475</v>
+        <v>7160.8266730179785</v>
       </c>
       <c r="D18">
-        <v>7160.8266730179785</v>
-      </c>
-      <c r="E18">
         <v>1434.367675695828</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B19">
-        <v>3642.7012516456193</v>
+        <v>1421951.3389462312</v>
       </c>
       <c r="C19">
-        <v>1421951.3389462312</v>
+        <v>2469117.3340979218</v>
       </c>
       <c r="D19">
-        <v>2469117.3340979218</v>
-      </c>
-      <c r="E19">
         <v>1050808.6964033362</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>23.004962074669844</v>
@@ -3387,606 +3282,466 @@
       <c r="D20">
         <v>23.004962074669844</v>
       </c>
-      <c r="E20">
-        <v>23.004962074669844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B21">
-        <v>232.72425416774288</v>
+        <v>1421233.0559062567</v>
       </c>
       <c r="C21">
-        <v>232.72425416774288</v>
+        <v>2468399.0510579473</v>
       </c>
       <c r="D21">
-        <v>232.72425416774288</v>
-      </c>
-      <c r="E21">
-        <v>232.72425416774288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1050090.4133633617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>1426.1038739068899</v>
+      </c>
+      <c r="C22">
+        <v>1426.1038739068899</v>
+      </c>
+      <c r="D22">
+        <v>1426.1038739068899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>159.93037774533582</v>
+      </c>
+      <c r="C23">
+        <v>159.93037774533582</v>
+      </c>
+      <c r="D23">
+        <v>159.93037774533582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24">
+        <v>76011.740077833208</v>
+      </c>
+      <c r="C24">
+        <v>84739.479492522136</v>
+      </c>
+      <c r="D24">
+        <v>11149.502779233071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>185377.36130990041</v>
+      </c>
+      <c r="C25">
+        <v>321963.73569235782</v>
+      </c>
+      <c r="D25">
+        <v>136967.81400183821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26">
+        <v>1158383.5362615383</v>
+      </c>
+      <c r="C26">
+        <v>2060074.9151807781</v>
+      </c>
+      <c r="D26">
+        <v>901705.48972249322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>18.860842352260732</v>
+      </c>
+      <c r="C27">
+        <v>18.860842352260732</v>
+      </c>
+      <c r="D27">
+        <v>18.860842352260732</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28">
+        <v>17561.899402017785</v>
+      </c>
+      <c r="C28">
+        <v>17561.899402017785</v>
+      </c>
+      <c r="D28">
+        <v>17561.899402017785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>276.90367962963307</v>
+      </c>
+      <c r="C29">
+        <v>276.90367962963307</v>
+      </c>
+      <c r="D29">
+        <v>276.90367962963307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30">
+        <v>103.30918253911165</v>
+      </c>
+      <c r="C30">
+        <v>103.30918253911165</v>
+      </c>
+      <c r="D30">
+        <v>103.30918253911165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31">
+        <v>8794.9356028080419</v>
+      </c>
+      <c r="C31">
+        <v>8794.9356028080419</v>
+      </c>
+      <c r="D31">
+        <v>8794.9356028080419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32">
+        <v>5429.8561042141682</v>
+      </c>
+      <c r="C32">
+        <v>5429.8561042141682</v>
+      </c>
+      <c r="D32">
+        <v>5429.8561042141682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33">
+        <v>1030.2258184707816</v>
+      </c>
+      <c r="C33">
+        <v>1030.2258184707816</v>
+      </c>
+      <c r="D33">
+        <v>1030.2258184707816</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34">
+        <v>3470.9686700000002</v>
+      </c>
+      <c r="C34">
+        <v>3470.9686700000002</v>
+      </c>
+      <c r="D34">
+        <v>3470.9686700000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>708.51843060302826</v>
+      </c>
+      <c r="C35">
+        <v>708.51843060302826</v>
+      </c>
+      <c r="D35">
+        <v>708.51843060302826</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36">
+        <v>50.027420760144935</v>
+      </c>
+      <c r="C36">
+        <v>50.027420760144935</v>
+      </c>
+      <c r="D36">
+        <v>50.027420760144935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37">
+        <v>6318.6202630866837</v>
+      </c>
+      <c r="C37">
+        <v>6318.6202630866837</v>
+      </c>
+      <c r="D37">
+        <v>6318.6202630866837</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>102</v>
       </c>
-      <c r="B22">
-        <v>2924.4182116711308</v>
-      </c>
-      <c r="C22">
-        <v>1421233.0559062567</v>
-      </c>
-      <c r="D22">
-        <v>2468399.0510579473</v>
-      </c>
-      <c r="E22">
-        <v>1050090.4133633617</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23">
-        <v>1426.1038739068899</v>
-      </c>
-      <c r="C23">
-        <v>1426.1038739068899</v>
-      </c>
-      <c r="D23">
-        <v>1426.1038739068899</v>
-      </c>
-      <c r="E23">
-        <v>1426.1038739068899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24">
-        <v>159.93037774533582</v>
-      </c>
-      <c r="C24">
-        <v>159.93037774533582</v>
-      </c>
-      <c r="D24">
-        <v>159.93037774533582</v>
-      </c>
-      <c r="E24">
-        <v>159.93037774533582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B39">
+        <v>150.80471112207351</v>
+      </c>
+      <c r="C39">
+        <v>168.1202662734604</v>
+      </c>
+      <c r="D39">
+        <v>22.120112072746164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>103</v>
       </c>
-      <c r="B25">
-        <v>2421.7633645441506</v>
-      </c>
-      <c r="C25">
-        <v>76011.740077833208</v>
-      </c>
-      <c r="D25">
-        <v>84739.479492522136</v>
-      </c>
-      <c r="E25">
-        <v>11149.502779233071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B40">
+        <v>1158232.7315504162</v>
+      </c>
+      <c r="C40">
+        <v>2059906.7949145047</v>
+      </c>
+      <c r="D40">
+        <v>901683.36961042043</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>2694.4458295273284</v>
+      </c>
+      <c r="C41">
+        <v>2694.4458295273284</v>
+      </c>
+      <c r="D41">
+        <v>2694.4458295273284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>104</v>
       </c>
-      <c r="B26">
-        <v>381.4396193807645</v>
-      </c>
-      <c r="C26">
-        <v>185377.36130990041</v>
-      </c>
-      <c r="D26">
-        <v>321963.73569235782</v>
-      </c>
-      <c r="E26">
-        <v>136967.81400183821</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B43">
+        <v>115512.24461875804</v>
+      </c>
+      <c r="C43">
+        <v>124715.47240310164</v>
+      </c>
+      <c r="D43">
+        <v>9208.2909102764788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
-      <c r="B27">
-        <v>14.110803253484669</v>
-      </c>
-      <c r="C27">
-        <v>1158383.5362615383</v>
-      </c>
-      <c r="D27">
-        <v>2060074.9151807781</v>
-      </c>
-      <c r="E27">
-        <v>901705.48972249322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28">
-        <v>18.860842352260732</v>
-      </c>
-      <c r="C28">
-        <v>18.860842352260732</v>
-      </c>
-      <c r="D28">
-        <v>18.860842352260732</v>
-      </c>
-      <c r="E28">
-        <v>18.860842352260732</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>17561.899402017785</v>
-      </c>
-      <c r="C29">
-        <v>17561.899402017785</v>
-      </c>
-      <c r="D29">
-        <v>17561.899402017785</v>
-      </c>
-      <c r="E29">
-        <v>17561.899402017785</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30">
-        <v>276.90367962963307</v>
-      </c>
-      <c r="C30">
-        <v>276.90367962963307</v>
-      </c>
-      <c r="D30">
-        <v>276.90367962963307</v>
-      </c>
-      <c r="E30">
-        <v>276.90367962963307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31">
-        <v>103.30918253911165</v>
-      </c>
-      <c r="C31">
-        <v>103.30918253911165</v>
-      </c>
-      <c r="D31">
-        <v>103.30918253911165</v>
-      </c>
-      <c r="E31">
-        <v>103.30918253911165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32">
-        <v>8794.9356028080419</v>
-      </c>
-      <c r="C32">
-        <v>8794.9356028080419</v>
-      </c>
-      <c r="D32">
-        <v>8794.9356028080419</v>
-      </c>
-      <c r="E32">
-        <v>8794.9356028080419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33">
+      <c r="B44">
+        <v>1042720.4869316581</v>
+      </c>
+      <c r="C44">
+        <v>1935191.3225114031</v>
+      </c>
+      <c r="D44">
+        <v>892475.07870014396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45">
+        <v>413.33354580790495</v>
+      </c>
+      <c r="C45">
+        <v>413.33354580790495</v>
+      </c>
+      <c r="D45">
+        <v>413.33354580790495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47">
+        <v>819892.32270297699</v>
+      </c>
+      <c r="C47">
+        <v>1676286.1099108066</v>
+      </c>
+      <c r="D47">
+        <v>856394.35238017223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48">
+        <v>222828.1642286827</v>
+      </c>
+      <c r="C48">
+        <v>258905.21260059933</v>
+      </c>
+      <c r="D48">
+        <v>36080.726319973306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49">
+        <v>7407.4112151954041</v>
+      </c>
+      <c r="C49">
+        <v>7407.4112151954041</v>
+      </c>
+      <c r="D49">
+        <v>7407.4112151954041</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51">
+        <v>211242.22568586672</v>
+      </c>
+      <c r="C51">
+        <v>238302.36026859097</v>
+      </c>
+      <c r="D51">
+        <v>27061.568242547881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52">
+        <v>11902.819672788437</v>
+      </c>
+      <c r="C52">
+        <v>12188.474880560725</v>
+      </c>
+      <c r="D52">
+        <v>9779.9061677261943</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53">
         <v>5429.8561042141682</v>
       </c>
-      <c r="C33">
+      <c r="C53">
         <v>5429.8561042141682</v>
       </c>
-      <c r="D33">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="E33">
-        <v>5429.8561042141682</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34">
-        <v>1030.2258184707816</v>
-      </c>
-      <c r="C34">
-        <v>1030.2258184707816</v>
-      </c>
-      <c r="D34">
-        <v>1030.2258184707816</v>
-      </c>
-      <c r="E34">
-        <v>1030.2258184707816</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35">
-        <v>3470.9686700000002</v>
-      </c>
-      <c r="C35">
-        <v>3470.9686700000002</v>
-      </c>
-      <c r="D35">
-        <v>3470.9686700000002</v>
-      </c>
-      <c r="E35">
-        <v>3470.9686700000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36">
-        <v>708.51843060302826</v>
-      </c>
-      <c r="C36">
-        <v>708.51843060302826</v>
-      </c>
-      <c r="D36">
-        <v>708.51843060302826</v>
-      </c>
-      <c r="E36">
-        <v>708.51843060302826</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37">
-        <v>50.027420760144935</v>
-      </c>
-      <c r="C37">
-        <v>50.027420760144935</v>
-      </c>
-      <c r="D37">
-        <v>50.027420760144935</v>
-      </c>
-      <c r="E37">
-        <v>50.027420760144935</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38">
-        <v>6318.6202630866837</v>
-      </c>
-      <c r="C38">
-        <v>6318.6202630866837</v>
-      </c>
-      <c r="D38">
-        <v>6318.6202630866837</v>
-      </c>
-      <c r="E38">
-        <v>6318.6202630866837</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40">
-        <v>4.8045569213592705</v>
-      </c>
-      <c r="C40">
-        <v>150.80471112207351</v>
-      </c>
-      <c r="D40">
-        <v>168.1202662734604</v>
-      </c>
-      <c r="E40">
-        <v>22.120112072746164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41">
-        <v>9.306246332125399</v>
-      </c>
-      <c r="C41">
-        <v>1158232.7315504162</v>
-      </c>
-      <c r="D41">
-        <v>2059906.7949145047</v>
-      </c>
-      <c r="E41">
-        <v>901683.36961042043</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42">
-        <v>2694.4458295273284</v>
-      </c>
-      <c r="C42">
-        <v>2694.4458295273284</v>
-      </c>
-      <c r="D42">
-        <v>2694.4458295273284</v>
-      </c>
-      <c r="E42">
-        <v>2694.4458295273284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44">
-        <v>5.0631259328436098</v>
-      </c>
-      <c r="C44">
-        <v>115512.24461875804</v>
-      </c>
-      <c r="D44">
-        <v>124715.47240310164</v>
-      </c>
-      <c r="E44">
-        <v>9208.2909102764788</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45">
-        <v>4.2431203992817892</v>
-      </c>
-      <c r="C45">
-        <v>1042720.4869316581</v>
-      </c>
-      <c r="D45">
-        <v>1935191.3225114031</v>
-      </c>
-      <c r="E45">
-        <v>892475.07870014396</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46">
-        <v>413.33354580790495</v>
-      </c>
-      <c r="C46">
-        <v>413.33354580790495</v>
-      </c>
-      <c r="D46">
-        <v>413.33354580790495</v>
-      </c>
-      <c r="E46">
-        <v>413.33354580790495</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48">
-        <v>0.56517234264358829</v>
-      </c>
-      <c r="C48">
-        <v>819892.32270297699</v>
-      </c>
-      <c r="D48">
-        <v>1676286.1099108066</v>
-      </c>
-      <c r="E48">
-        <v>856394.35238017223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49">
-        <v>3.6779480566382015</v>
-      </c>
-      <c r="C49">
-        <v>222828.1642286827</v>
-      </c>
-      <c r="D49">
-        <v>258905.21260059933</v>
-      </c>
-      <c r="E49">
-        <v>36080.726319973306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50">
-        <v>7407.4112151954041</v>
-      </c>
-      <c r="C50">
-        <v>7407.4112151954041</v>
-      </c>
-      <c r="D50">
-        <v>7407.4112151954041</v>
-      </c>
-      <c r="E50">
-        <v>7407.4112151954041</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52">
-        <v>1.4336598236122811</v>
-      </c>
-      <c r="C52">
-        <v>211242.22568586672</v>
-      </c>
-      <c r="D52">
-        <v>238302.36026859097</v>
-      </c>
-      <c r="E52">
-        <v>27061.568242547881</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53">
-        <v>9494.2509599539044</v>
-      </c>
-      <c r="C53">
-        <v>11902.819672788437</v>
-      </c>
       <c r="D53">
-        <v>12188.474880560725</v>
-      </c>
-      <c r="E53">
-        <v>9779.9061677261943</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54">
-        <f>B21</f>
-        <v>232.72425416774288</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ref="C54:E54" si="0">C21</f>
-        <v>232.72425416774288</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>232.72425416774288</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>232.72425416774288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="C55">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="D55">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="E55">
         <v>5429.8561042141682</v>
       </c>
     </row>
@@ -4013,13 +3768,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4033,12 +3788,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -4047,12 +3802,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -4061,12 +3816,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -4075,12 +3830,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -4089,12 +3844,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -4103,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4138,27 +3893,27 @@
         <v>20</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -4185,7 +3940,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4212,7 +3967,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -4240,7 +3995,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -4267,7 +4022,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -4294,7 +4049,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -4321,7 +4076,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -4348,7 +4103,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -4375,7 +4130,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -4402,7 +4157,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -4429,7 +4184,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -4456,7 +4211,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -4483,7 +4238,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -4510,7 +4265,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -4537,7 +4292,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -4564,7 +4319,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -4591,7 +4346,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -4618,7 +4373,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -4645,7 +4400,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -4672,7 +4427,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -4699,7 +4454,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -4726,7 +4481,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -4753,7 +4508,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -4780,7 +4535,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -4813,10 +4568,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8797385-650D-424D-8528-DB5C7F47F73C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4833,12 +4588,12 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f>Flows!A53</f>
+        <f>Flows!A52</f>
         <v>BW</v>
       </c>
       <c r="B2" t="s">
@@ -4850,8 +4605,8 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>Flows!A54</f>
-        <v>EW</v>
+        <f>Flows!A53</f>
+        <v>HW</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -4860,21 +4615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="str">
-        <f>Flows!A55</f>
-        <v>HW</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2:C4" xr:uid="{40FC2D87-D241-4D61-BDED-545CD149AFC1}">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2:C3" xr:uid="{40FC2D87-D241-4D61-BDED-545CD149AFC1}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -4886,120 +4629,98 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0677A9-7AAE-4991-9D76-E3C916B54E4E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2">
         <v>0.25</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2">
         <v>0.25</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>0.25</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
         <v>0.25</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
     </row>
